--- a/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_06_beg.xlsx
+++ b/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_06_beg.xlsx
@@ -768,7 +768,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Sunset Boulevard, "The Ends of the Earth" lounge
+    <t xml:space="preserve">Sunset Boulevard, 'The Ends of the Earth' lounge
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_06_beg.xlsx
+++ b/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_06_beg.xlsx
@@ -764,7 +764,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">10:26 PM \ Cloudy
+    <t xml:space="preserve">10:26 P.M. \ Cloudy
 </t>
   </si>
   <si>
